--- a/Cahier de charge.xlsx
+++ b/Cahier de charge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YAHYAX\Workspace\Projects\CYBERSEC\SYSGUARD\SYSGUARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9313B20-3036-4AFB-B77B-8750704A07CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD826065-7ACA-4841-AE12-61E817F446D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D3BBEA7B-0041-42A8-BFC3-0FD19AF0C7B4}"/>
   </bookViews>
@@ -99,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -162,6 +168,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,7 +490,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -572,7 +581,7 @@
     </row>
     <row r="14" spans="1:2" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>

--- a/Cahier de charge.xlsx
+++ b/Cahier de charge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YAHYAX\Workspace\Projects\CYBERSEC\SYSGUARD\SYSGUARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD826065-7ACA-4841-AE12-61E817F446D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7BDC55-D99C-4D62-865C-FB41E173523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D3BBEA7B-0041-42A8-BFC3-0FD19AF0C7B4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Features</t>
   </si>
@@ -76,13 +76,19 @@
   </si>
   <si>
     <t>Report export</t>
+  </si>
+  <si>
+    <t>Automatic Ban (Black list)</t>
+  </si>
+  <si>
+    <t>Live mode monitoring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +100,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -171,6 +184,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,7 +506,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -580,12 +596,16 @@
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:2" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>

--- a/Cahier de charge.xlsx
+++ b/Cahier de charge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YAHYAX\Workspace\Projects\CYBERSEC\SYSGUARD\SYSGUARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7BDC55-D99C-4D62-865C-FB41E173523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4387C4B-CD28-4516-B770-8FD2CD42D059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D3BBEA7B-0041-42A8-BFC3-0FD19AF0C7B4}"/>
   </bookViews>
@@ -81,14 +81,14 @@
     <t>Automatic Ban (Black list)</t>
   </si>
   <si>
-    <t>Live mode monitoring</t>
+    <t>Subshell -s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +111,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +141,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -183,10 +196,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,7 +522,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -599,17 +615,17 @@
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>

--- a/Cahier de charge.xlsx
+++ b/Cahier de charge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YAHYAX\Workspace\Projects\CYBERSEC\SYSGUARD\SYSGUARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4387C4B-CD28-4516-B770-8FD2CD42D059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64401970-E294-441E-868A-52F4405D7F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D3BBEA7B-0041-42A8-BFC3-0FD19AF0C7B4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Features</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Subshell -s</t>
+  </si>
+  <si>
+    <t>Convert to linux tool (paths problem)</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,13 +143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,13 +193,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +519,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -615,17 +612,19 @@
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
